--- a/Mathematics and Methods in ML and NN/Methods/t2/centroids.xlsx
+++ b/Mathematics and Methods in ML and NN/Methods/t2/centroids.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>746.2606307391025</v>
+        <v>172.0839427197358</v>
       </c>
       <c r="C2">
-        <v>405.7618574636218</v>
+        <v>530.0888869211499</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>202.8713228205057</v>
+        <v>800.5083493606794</v>
       </c>
       <c r="C3">
-        <v>531.2430480750711</v>
+        <v>249.7091163622136</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>627.7745730101761</v>
+        <v>593.6752520694174</v>
       </c>
       <c r="C4">
-        <v>894.654438748924</v>
+        <v>792.802352479542</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,76 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>310.9388084492398</v>
+        <v>439.667676259306</v>
       </c>
       <c r="C5">
-        <v>86.63828269849256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>548.0012763705403</v>
-      </c>
-      <c r="C6">
-        <v>177.4519294094116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>449.657482566093</v>
-      </c>
-      <c r="C7">
-        <v>731.9697408528399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>882.1987696715814</v>
-      </c>
-      <c r="C8">
-        <v>644.2486134865952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>108.8105034618083</v>
-      </c>
-      <c r="C9">
-        <v>333.2450710927312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>847.2374072529483</v>
-      </c>
-      <c r="C10">
-        <v>124.822618542699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>182.4879836849872</v>
-      </c>
-      <c r="C11">
-        <v>833.5632737882052</v>
+        <v>140.2439891484623</v>
       </c>
     </row>
   </sheetData>
